--- a/size_comparissons.xlsx
+++ b/size_comparissons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Taaniel\Documents\Magister\Courses\Algorithmics\Project\Algoritmika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD3CC02-8912-4110-928B-DC47669AE38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CF13BF-5A09-4BF0-9938-61B00CB47C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="6960" windowWidth="28110" windowHeight="16440" xr2:uid="{09615DCA-F4FF-4608-880A-C8AE92D2CD56}"/>
+    <workbookView xWindow="840" yWindow="-120" windowWidth="37680" windowHeight="21840" xr2:uid="{09615DCA-F4FF-4608-880A-C8AE92D2CD56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
   <si>
     <t>Original</t>
   </si>
@@ -53,12 +53,6 @@
     <t>Tõde ja Õigus (1,081.406)</t>
   </si>
   <si>
-    <t>TODO</t>
-  </si>
-  <si>
-    <t>Random DNA 5M</t>
-  </si>
-  <si>
     <t>Bible (4,404,443)</t>
   </si>
   <si>
@@ -69,6 +63,12 @@
   </si>
   <si>
     <t>Romeo and Juliet (167,328)</t>
+  </si>
+  <si>
+    <t>Random DNA (5M)</t>
+  </si>
+  <si>
+    <t>Random DNA (10M)</t>
   </si>
 </sst>
 </file>
@@ -187,8 +187,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Compression results</a:t>
+              <a:rPr lang="en-GB" sz="1800"/>
+              <a:t>LZ77 compression results</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -511,9 +511,9 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$D$11:$E$31</c:f>
+              <c:f>Sheet1!$D$11:$E$34</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="24"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Original</c:v>
@@ -576,6 +576,15 @@
                     <c:v>Compressed</c:v>
                   </c:pt>
                   <c:pt idx="20">
+                    <c:v>BWT compressed</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Original</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Compressed</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
                     <c:v>BWT compressed</c:v>
                   </c:pt>
                 </c:lvl>
@@ -599,7 +608,10 @@
                     <c:v>Middlemarch (1,832,953)</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Random DNA 5M</c:v>
+                    <c:v>Random DNA (5M)</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Random DNA (10M)</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -607,10 +619,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$11:$F$31</c:f>
+              <c:f>Sheet1!$F$11:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1057</c:v>
                 </c:pt>
@@ -633,7 +645,7 @@
                   <c:v>4302</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2830</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2727</c:v>
@@ -667,6 +679,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>5046</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -716,7 +731,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -783,7 +798,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1600"/>
                   <a:t>File size in KB</a:t>
                 </a:r>
               </a:p>
@@ -1452,16 +1467,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>376237</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1786,10 +1801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF45D02-6DE9-4C18-AAC2-704046384B74}">
-  <dimension ref="C5:J31"/>
+  <dimension ref="D5:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1877,12 +1892,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
         <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
       </c>
       <c r="E17" t="s">
         <v>0</v>
@@ -1891,15 +1903,15 @@
         <v>4302</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>2</v>
       </c>
@@ -1907,9 +1919,9 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
         <v>0</v>
@@ -1918,7 +1930,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>1</v>
       </c>
@@ -1926,7 +1938,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>2</v>
       </c>
@@ -1934,9 +1946,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
         <v>0</v>
@@ -1945,7 +1957,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>1</v>
       </c>
@@ -1953,7 +1965,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>2</v>
       </c>
@@ -1961,9 +1973,9 @@
         <v>854</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
         <v>0</v>
@@ -1972,7 +1984,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>1</v>
       </c>
@@ -1980,7 +1992,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>2</v>
       </c>
@@ -1988,9 +2000,9 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
         <v>0</v>
@@ -1999,13 +2011,34 @@
         <v>5046</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>10092</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
         <v>2</v>
       </c>
     </row>
